--- a/biology/Zoologie/Buthacus_ziegleri/Buthacus_ziegleri.xlsx
+++ b/biology/Zoologie/Buthacus_ziegleri/Buthacus_ziegleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buthacus ziegleri est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la région de Drâa-Tafilalet au Maroc. Elle se rencontre vers Erfoud, Merzouga et Rissani[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la région de Drâa-Tafilalet au Maroc. Elle se rencontre vers Erfoud, Merzouga et Rissani,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Buthacus ziegleri mesure de 43 à 65 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buthacus ziegleri mesure de 43 à 65 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Lourenço en 2000.
-Buthacus mahraouii[3] et Buthacus leptochelys algerianus[4] ont été placées en synonymie par Kovařík, Lowe et Šťáhlavský en 2016[1] puis relevées de synonymie par Lourenço en 2017[5].
+Buthacus mahraouii et Buthacus leptochelys algerianus ont été placées en synonymie par Kovařík, Lowe et Šťáhlavský en 2016 puis relevées de synonymie par Lourenço en 2017.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Thomas Ziegler[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Thomas Ziegler.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Lourenço, 2000 : « A new species of Buthacus Birula from Morocco (Arachnida: Scorpiones: Buthidae). » Faunistische Abhandlungen Staatliches Museum für Tierkunde Dresden, vol. 22, no 1, p. 5–9.</t>
         </is>
